--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H2">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I2">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J2">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>889.3320869571487</v>
+        <v>189.6251011346681</v>
       </c>
       <c r="R2">
-        <v>8003.988782614338</v>
+        <v>1706.625910212013</v>
       </c>
       <c r="S2">
-        <v>0.0062860442189963</v>
+        <v>0.001620473045247292</v>
       </c>
       <c r="T2">
-        <v>0.0062860442189963</v>
+        <v>0.001620473045247292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H3">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I3">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J3">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>26618.64614182075</v>
+        <v>12160.19378138446</v>
       </c>
       <c r="R3">
-        <v>239567.8152763867</v>
+        <v>109441.7440324601</v>
       </c>
       <c r="S3">
-        <v>0.1881479248879984</v>
+        <v>0.1039169715918725</v>
       </c>
       <c r="T3">
-        <v>0.1881479248879984</v>
+        <v>0.1039169715918725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H4">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I4">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J4">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>3655.086803320523</v>
+        <v>1489.012280140066</v>
       </c>
       <c r="R4">
-        <v>32895.78122988471</v>
+        <v>13401.11052126059</v>
       </c>
       <c r="S4">
-        <v>0.02583516057376856</v>
+        <v>0.01272460370262684</v>
       </c>
       <c r="T4">
-        <v>0.02583516057376856</v>
+        <v>0.01272460370262684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H5">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I5">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J5">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>11368.44954564282</v>
+        <v>4320.774578719653</v>
       </c>
       <c r="R5">
-        <v>102316.0459107854</v>
+        <v>38886.97120847688</v>
       </c>
       <c r="S5">
-        <v>0.08035533361879306</v>
+        <v>0.03692390246601609</v>
       </c>
       <c r="T5">
-        <v>0.08035533361879306</v>
+        <v>0.03692390246601609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I6">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J6">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>1388.417182382336</v>
+        <v>648.0332808090029</v>
       </c>
       <c r="R6">
-        <v>12495.75464144102</v>
+        <v>5832.299527281025</v>
       </c>
       <c r="S6">
-        <v>0.009813715181166228</v>
+        <v>0.00553787688280985</v>
       </c>
       <c r="T6">
-        <v>0.009813715181166228</v>
+        <v>0.00553787688280985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I7">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J7">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>41556.78875987747</v>
@@ -883,10 +883,10 @@
         <v>374011.0988388972</v>
       </c>
       <c r="S7">
-        <v>0.293734832662869</v>
+        <v>0.355130495010744</v>
       </c>
       <c r="T7">
-        <v>0.293734832662869</v>
+        <v>0.355130495010744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I8">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J8">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>5706.288342965931</v>
+        <v>5088.616998963585</v>
       </c>
       <c r="R8">
-        <v>51356.59508669338</v>
+        <v>45797.55299067226</v>
       </c>
       <c r="S8">
-        <v>0.04033361820212309</v>
+        <v>0.04348562840608074</v>
       </c>
       <c r="T8">
-        <v>0.04033361820212309</v>
+        <v>0.04348562840608073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I9">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J9">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>17748.32024808939</v>
+        <v>14766.00781821244</v>
       </c>
       <c r="R9">
-        <v>159734.8822328045</v>
+        <v>132894.0703639119</v>
       </c>
       <c r="S9">
-        <v>0.125450017522839</v>
+        <v>0.1261853916604157</v>
       </c>
       <c r="T9">
-        <v>0.125450017522839</v>
+        <v>0.1261853916604157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H10">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I10">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J10">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>119.7332391942226</v>
+        <v>50.73897504248145</v>
       </c>
       <c r="R10">
-        <v>1077.599152748004</v>
+        <v>456.650775382333</v>
       </c>
       <c r="S10">
-        <v>0.0008463075234738603</v>
+        <v>0.0004335984049992642</v>
       </c>
       <c r="T10">
-        <v>0.0008463075234738604</v>
+        <v>0.0004335984049992642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H11">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I11">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J11">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>3583.741970257465</v>
+        <v>3253.766326786165</v>
       </c>
       <c r="R11">
-        <v>32253.67773231719</v>
+        <v>29283.89694107548</v>
       </c>
       <c r="S11">
-        <v>0.02533087563678202</v>
+        <v>0.02780560483047939</v>
       </c>
       <c r="T11">
-        <v>0.02533087563678203</v>
+        <v>0.02780560483047939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H12">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I12">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J12">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>492.0944480874328</v>
+        <v>398.4227640111863</v>
       </c>
       <c r="R12">
-        <v>4428.850032786895</v>
+        <v>3585.804876100676</v>
       </c>
       <c r="S12">
-        <v>0.003478259140726617</v>
+        <v>0.003404788426372591</v>
       </c>
       <c r="T12">
-        <v>0.003478259140726618</v>
+        <v>0.003404788426372591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H13">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I13">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J13">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>1530.565813017259</v>
+        <v>1156.13213758104</v>
       </c>
       <c r="R13">
-        <v>13775.09231715533</v>
+        <v>10405.18923822936</v>
       </c>
       <c r="S13">
-        <v>0.01081846086722169</v>
+        <v>0.009879920719798055</v>
       </c>
       <c r="T13">
-        <v>0.01081846086722169</v>
+        <v>0.009879920719798055</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H14">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I14">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J14">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>560.7999851666685</v>
+        <v>333.5244738889304</v>
       </c>
       <c r="R14">
-        <v>5047.199866500016</v>
+        <v>3001.720265000374</v>
       </c>
       <c r="S14">
-        <v>0.003963888806521838</v>
+        <v>0.002850189224070427</v>
       </c>
       <c r="T14">
-        <v>0.003963888806521838</v>
+        <v>0.002850189224070427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H15">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I15">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J15">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>16785.33427548437</v>
+        <v>21388.10847854683</v>
       </c>
       <c r="R15">
-        <v>151068.0084793593</v>
+        <v>192492.9763069215</v>
       </c>
       <c r="S15">
-        <v>0.1186433673469976</v>
+        <v>0.1827756614020005</v>
       </c>
       <c r="T15">
-        <v>0.1186433673469976</v>
+        <v>0.1827756614020005</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H16">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I16">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J16">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>2304.845012506336</v>
+        <v>2618.967817953493</v>
       </c>
       <c r="R16">
-        <v>20743.60511255703</v>
+        <v>23570.71036158144</v>
       </c>
       <c r="S16">
-        <v>0.016291279578273</v>
+        <v>0.0223808279071122</v>
       </c>
       <c r="T16">
-        <v>0.016291279578273</v>
+        <v>0.02238082790711219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H17">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I17">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J17">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>7168.780290361552</v>
+        <v>7599.648250875325</v>
       </c>
       <c r="R17">
-        <v>64519.02261325397</v>
+        <v>68396.83425787793</v>
       </c>
       <c r="S17">
-        <v>0.0506709142314497</v>
+        <v>0.06494406631935452</v>
       </c>
       <c r="T17">
-        <v>0.0506709142314497</v>
+        <v>0.06494406631935452</v>
       </c>
     </row>
   </sheetData>
